--- a/MedicalLink/Templates/BC_ThuTienNhaThuocHangNgay.xlsx
+++ b/MedicalLink/Templates/BC_ThuTienNhaThuocHangNgay.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HongNhat\Desktop\MedicalLink.git\trunk\MedicalLink\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\O2S_MedicalLink\trunk\MedicalLink\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="BCHN" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">BCHN!$A$1:$R$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">BCHN!$A$1:$R$17</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -83,9 +83,6 @@
     <t xml:space="preserve">BÁO CÁO THU HÀNG NGÀY </t>
   </si>
   <si>
-    <t>BỆNH VIỆN HỮU NGHỊ VIỆT TIỆP</t>
-  </si>
-  <si>
     <t>&amp;=[DATA].THOIGIANBAOCAO</t>
   </si>
   <si>
@@ -156,6 +153,9 @@
   </si>
   <si>
     <t>&amp;=[DATA1].GHICHU</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].TENBENHVIEN</t>
   </si>
 </sst>
 </file>
@@ -368,7 +368,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -430,15 +430,39 @@
     <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="3" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -448,35 +472,17 @@
     <xf numFmtId="165" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -759,10 +765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="H1" zoomScale="82" zoomScaleNormal="110" zoomScaleSheetLayoutView="82" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10:Q12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="82" zoomScaleNormal="110" zoomScaleSheetLayoutView="82" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,315 +788,309 @@
     <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:18" s="15" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="4"/>
+      <c r="E1" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+    </row>
+    <row r="2" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="E2" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="28" t="s">
         <v>18</v>
       </c>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
     </row>
-    <row r="2" spans="1:18" s="15" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="37" t="s">
+    <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:18" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="40"/>
+      <c r="H7" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="P7" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+    </row>
+    <row r="9" spans="1:18" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>1</v>
+      </c>
+      <c r="B9" s="11">
+        <v>2</v>
+      </c>
+      <c r="C9" s="11">
+        <v>3</v>
+      </c>
+      <c r="D9" s="11">
+        <v>4</v>
+      </c>
+      <c r="E9" s="11">
+        <v>5</v>
+      </c>
+      <c r="F9" s="11">
+        <v>6</v>
+      </c>
+      <c r="G9" s="11">
+        <v>7</v>
+      </c>
+      <c r="H9" s="11">
+        <v>8</v>
+      </c>
+      <c r="I9" s="11">
+        <v>9</v>
+      </c>
+      <c r="J9" s="11">
+        <v>10</v>
+      </c>
+      <c r="K9" s="11">
+        <v>11</v>
+      </c>
+      <c r="L9" s="11">
+        <v>12</v>
+      </c>
+      <c r="M9" s="11">
+        <v>13</v>
+      </c>
+      <c r="N9" s="11">
+        <v>14</v>
+      </c>
+      <c r="O9" s="11">
+        <v>15</v>
+      </c>
+      <c r="P9" s="11">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="11">
         <v>17</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
+      <c r="R9" s="11">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="D3" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
+    <row r="10" spans="1:18" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="P10" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q10" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="R10" s="11" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="39" t="s">
+    <row r="11" spans="1:18" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="7">
+        <f>SUM(Q10:Q10)</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="7"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L14" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:18" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="36"/>
-      <c r="H8" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="L8" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="M8" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="N8" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="O8" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="P8" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="R8" s="26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-    </row>
-    <row r="10" spans="1:18" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
-        <v>1</v>
-      </c>
-      <c r="B10" s="11">
-        <v>2</v>
-      </c>
-      <c r="C10" s="11">
-        <v>3</v>
-      </c>
-      <c r="D10" s="11">
-        <v>4</v>
-      </c>
-      <c r="E10" s="11">
-        <v>5</v>
-      </c>
-      <c r="F10" s="11">
-        <v>6</v>
-      </c>
-      <c r="G10" s="11">
-        <v>7</v>
-      </c>
-      <c r="H10" s="11">
-        <v>8</v>
-      </c>
-      <c r="I10" s="11">
-        <v>9</v>
-      </c>
-      <c r="J10" s="11">
-        <v>10</v>
-      </c>
-      <c r="K10" s="11">
-        <v>11</v>
-      </c>
-      <c r="L10" s="11">
-        <v>12</v>
-      </c>
-      <c r="M10" s="11">
-        <v>13</v>
-      </c>
-      <c r="N10" s="11">
-        <v>14</v>
-      </c>
-      <c r="O10" s="11">
-        <v>15</v>
-      </c>
-      <c r="P10" s="11">
-        <v>16</v>
-      </c>
-      <c r="Q10" s="11">
-        <v>17</v>
-      </c>
-      <c r="R10" s="11">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="L11" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="M11" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="N11" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="O11" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="P11" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q11" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="R11" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="7">
-        <f>SUM(Q11:Q11)</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="7"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="L15" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="21"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="D3:L3"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="E3:K3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>

--- a/MedicalLink/Templates/BC_ThuTienNhaThuocHangNgay.xlsx
+++ b/MedicalLink/Templates/BC_ThuTienNhaThuocHangNgay.xlsx
@@ -433,6 +433,48 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -441,48 +483,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -767,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="82" zoomScaleNormal="110" zoomScaleSheetLayoutView="82" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="50" zoomScaleNormal="110" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,36 +789,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="15" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="27" t="s">
         <v>42</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="4"/>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="16"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
       <c r="M1" s="17"/>
       <c r="N1" s="16"/>
       <c r="O1" s="16"/>
       <c r="P1" s="16"/>
     </row>
     <row r="2" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="E2" s="27" t="s">
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
       <c r="L2" s="41"/>
       <c r="M2" s="20"/>
       <c r="N2" s="14"/>
@@ -826,16 +824,15 @@
       <c r="P2" s="14"/>
     </row>
     <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="28" t="s">
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="19"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
       <c r="M3" s="18"/>
       <c r="N3" s="19"/>
       <c r="O3" s="19"/>
@@ -858,10 +855,10 @@
       <c r="E7" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="40"/>
+      <c r="G7" s="39"/>
       <c r="H7" s="29" t="s">
         <v>10</v>
       </c>
@@ -871,19 +868,19 @@
       <c r="J7" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="33" t="s">
+      <c r="K7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="33" t="s">
+      <c r="L7" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="33" t="s">
+      <c r="M7" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="31" t="s">
+      <c r="N7" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="O7" s="31" t="s">
+      <c r="O7" s="36" t="s">
         <v>22</v>
       </c>
       <c r="P7" s="29" t="s">
@@ -911,11 +908,11 @@
       <c r="H8" s="30"/>
       <c r="I8" s="30"/>
       <c r="J8" s="30"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
       <c r="P8" s="30"/>
       <c r="Q8" s="30"/>
       <c r="R8" s="30"/>
@@ -1033,13 +1030,13 @@
       </c>
     </row>
     <row r="11" spans="1:18" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="33"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="8"/>
@@ -1058,17 +1055,23 @@
       <c r="R11" s="7"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="L14" s="35" t="s">
+      <c r="L14" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
       <c r="Q14" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="M7:M8"/>
     <mergeCell ref="L14:P14"/>
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="Q7:Q8"/>
@@ -1085,12 +1088,6 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:H8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="E3:K3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>

--- a/MedicalLink/Templates/BC_ThuTienNhaThuocHangNgay.xlsx
+++ b/MedicalLink/Templates/BC_ThuTienNhaThuocHangNgay.xlsx
@@ -166,7 +166,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd\ hh:mm"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -368,7 +368,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -421,33 +421,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="3" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -457,32 +466,29 @@
     <xf numFmtId="165" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -767,57 +773,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="50" zoomScaleNormal="110" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:L3"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="I1" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" style="5" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="5" customWidth="1"/>
-    <col min="3" max="4" width="12.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="8.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="5" customWidth="1"/>
+    <col min="3" max="4" width="8.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="5.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="10" width="19.85546875" style="1" customWidth="1"/>
-    <col min="11" max="13" width="19.85546875" style="3" customWidth="1"/>
-    <col min="14" max="15" width="19.85546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="23" style="1" customWidth="1"/>
-    <col min="17" max="17" width="25" style="1" customWidth="1"/>
-    <col min="18" max="18" width="25.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="20" style="3" customWidth="1"/>
+    <col min="13" max="13" width="17.140625" style="3" customWidth="1"/>
+    <col min="14" max="15" width="18.140625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="18.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18.28515625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="15" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="23" t="s">
         <v>42</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="4"/>
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
       <c r="M1" s="17"/>
       <c r="N1" s="16"/>
       <c r="O1" s="16"/>
       <c r="P1" s="16"/>
     </row>
     <row r="2" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="41" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
       <c r="M2" s="20"/>
       <c r="N2" s="14"/>
       <c r="O2" s="14"/>
@@ -826,13 +834,13 @@
     <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
       <c r="M3" s="18"/>
       <c r="N3" s="19"/>
       <c r="O3" s="19"/>
@@ -840,82 +848,82 @@
     </row>
     <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:18" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="29" t="s">
+      <c r="G7" s="38"/>
+      <c r="H7" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="29" t="s">
+      <c r="I7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="29" t="s">
+      <c r="J7" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="34" t="s">
+      <c r="K7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="34" t="s">
+      <c r="L7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="34" t="s">
+      <c r="M7" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="36" t="s">
+      <c r="N7" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="O7" s="36" t="s">
+      <c r="O7" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="P7" s="29" t="s">
+      <c r="P7" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="Q7" s="29" t="s">
+      <c r="Q7" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="R7" s="29" t="s">
+      <c r="R7" s="27" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:18" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="13" t="s">
         <v>2</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
     </row>
     <row r="9" spans="1:18" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
@@ -973,70 +981,70 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:18" s="44" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="I10" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="22" t="s">
+      <c r="J10" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="23" t="s">
+      <c r="K10" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="22" t="s">
+      <c r="L10" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="22" t="s">
+      <c r="M10" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="N10" s="23" t="s">
+      <c r="N10" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="O10" s="24" t="s">
+      <c r="O10" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="P10" s="22" t="s">
+      <c r="P10" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="Q10" s="25" t="s">
+      <c r="Q10" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="R10" s="11" t="s">
+      <c r="R10" s="39" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:18" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="33"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="36"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="8"/>
@@ -1055,23 +1063,17 @@
       <c r="R11" s="7"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="L14" s="28" t="s">
+      <c r="L14" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
       <c r="Q14" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="M7:M8"/>
     <mergeCell ref="L14:P14"/>
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="Q7:Q8"/>
@@ -1088,10 +1090,16 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="M7:M8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="41" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>Page &amp;P</oddFooter>
   </headerFooter>
